--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/automation/v1/formrecords?form=reimbursement </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"大于200.10"},{"type":"活动经费","amount":!!Double10.11,"desc":"大于200.10"}]}</t>
+  </si>
+  <si>
+    <t>/automation/v1/formrecords?form=reimbursement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -651,114 +651,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>199.98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>199.99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>199.98</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>199.99</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>200.1</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>200.11</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -828,13 +828,13 @@
         <v>199.98</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -854,13 +854,13 @@
         <v>199.99</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -880,13 +880,13 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -906,13 +906,13 @@
         <v>199.98</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -932,13 +932,13 @@
         <v>199.99</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -958,13 +958,13 @@
         <v>200</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -984,13 +984,13 @@
         <v>200.1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1010,13 +1010,13 @@
         <v>200.11</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>

--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>CaseID</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>/automation/v1/formrecords?form=reimbursement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,12 +240,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +631,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,7 +788,7 @@
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.125" customWidth="1"/>
     <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
@@ -798,7 +805,7 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -824,7 +831,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>199.98</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -850,7 +857,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>199.99</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -876,8 +883,8 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
-        <v>200</v>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -902,7 +909,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>199.98</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -928,7 +935,7 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>199.99</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -954,8 +961,8 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
-        <v>200</v>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -980,7 +987,7 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>200.1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1006,7 +1013,7 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>200.11</v>
       </c>
       <c r="E9" s="1" t="s">

--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>CaseID</t>
   </si>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>/automation/v1/formrecords?form=reimbursement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +776,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,8 +879,8 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
+      <c r="D4" s="2">
+        <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -961,8 +957,8 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
+      <c r="D7" s="2">
+        <v>200</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>

--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -212,6 +212,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,10 +247,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,62 +570,64 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -627,25 +636,26 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -653,7 +663,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1">
@@ -662,12 +672,12 @@
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1">
@@ -676,12 +686,12 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1">
@@ -690,32 +700,32 @@
       <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>199.98</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>199.99</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -726,13 +736,13 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>200</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -740,13 +750,13 @@
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>200.1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -754,10 +764,10 @@
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>200.11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -776,23 +786,24 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.125" customWidth="1"/>
-    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="138.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -817,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -869,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>

--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -77,120 +77,120 @@
     <t>approval_creating</t>
   </si>
   <si>
+    <t>报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_2</t>
+  </si>
+  <si>
+    <t>reimbursement_3</t>
+  </si>
+  <si>
+    <t>reimbursement_4</t>
+  </si>
+  <si>
+    <t>reimbursement_5</t>
+  </si>
+  <si>
+    <t>reimbursement_6</t>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabular_sections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"小于199.99"},{"type":"活动经费","amount":9.98,"desc":"小于199.99"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"等于199.99"},{"type":"活动经费","amount":9.99,"desc":"等于199.99"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"等于200"},{"type":"活动经费","amount":10,"desc":"等于200"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"大于200.10"},{"type":"活动经费","amount":10.11,"desc":"大于200.10"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"大于200.10"},{"type":"活动经费","amount":10.10,"desc":"大于200.10"}]}</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"employee_id":"${Auth.employee_id}","service_order_id":"","timeline_id":""}</t>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于199.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于200.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定人员发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_7</t>
+  </si>
+  <si>
+    <t>reimbursement_8</t>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"小于199.99"},{"type":"活动经费","amount":!!Double9.98,"desc":"小于199.99"}]}</t>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"等于199.99"},{"type":"活动经费","amount":!!Double9.99,"desc":"等于199.99"}]}</t>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"等于200"},{"type":"活动经费","amount":!!Double10,"desc":"等于200"}]}</t>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"大于200.10"},{"type":"活动经费","amount":!!Double10.10,"desc":"大于200.10"}]}</t>
+  </si>
+  <si>
+    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"大于200.10"},{"type":"活动经费","amount":!!Double10.11,"desc":"大于200.10"}]}</t>
+  </si>
+  <si>
+    <t>/automation/v1/formrecords?form=reimbursement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reimbursement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_2</t>
-  </si>
-  <si>
-    <t>reimbursement_3</t>
-  </si>
-  <si>
-    <t>reimbursement_4</t>
-  </si>
-  <si>
-    <t>reimbursement_5</t>
-  </si>
-  <si>
-    <t>reimbursement_6</t>
-  </si>
-  <si>
-    <t>total_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabular_sections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"小于199.99"},{"type":"活动经费","amount":9.98,"desc":"小于199.99"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"等于199.99"},{"type":"活动经费","amount":9.99,"desc":"等于199.99"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"等于200"},{"type":"活动经费","amount":10,"desc":"等于200"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"大于200.10"},{"type":"活动经费","amount":10.11,"desc":"大于200.10"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":190,"desc":"大于200.10"},{"type":"活动经费","amount":10.10,"desc":"大于200.10"}]}</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"employee_id":"${Auth.employee_id}","service_order_id":"","timeline_id":""}</t>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于等于199.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于等于200.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定人员发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_7</t>
-  </si>
-  <si>
-    <t>reimbursement_8</t>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"小于199.99"},{"type":"活动经费","amount":!!Double9.98,"desc":"小于199.99"}]}</t>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"等于199.99"},{"type":"活动经费","amount":!!Double9.99,"desc":"等于199.99"}]}</t>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"等于200"},{"type":"活动经费","amount":!!Double10,"desc":"等于200"}]}</t>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"大于200.10"},{"type":"活动经费","amount":!!Double10.10,"desc":"大于200.10"}]}</t>
-  </si>
-  <si>
-    <t>{"reimbursement_detail":[{"type":"采购经费","amount":!!Double190,"desc":"大于200.10"},{"type":"活动经费","amount":!!Double10.11,"desc":"大于200.10"}]}</t>
-  </si>
-  <si>
-    <t>/automation/v1/formrecords?form=reimbursement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -606,10 +606,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -664,114 +664,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>199.98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>199.99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>199.98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>199.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>200.1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>200.11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -842,13 +842,13 @@
         <v>199.98</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -868,13 +868,13 @@
         <v>199.99</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -894,13 +894,13 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -920,13 +920,13 @@
         <v>199.98</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -946,13 +946,13 @@
         <v>199.99</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -972,13 +972,13 @@
         <v>200</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -998,13 +998,13 @@
         <v>200.1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1024,13 +1024,13 @@
         <v>200.11</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>

--- a/sources/case/reimbursement.xlsx
+++ b/sources/case/reimbursement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -635,14 +635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="135.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
